--- a/Vaccination/codebook_vacc.xlsx
+++ b/Vaccination/codebook_vacc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranli\Desktop\Git local\BCHC COVID-19 Public GitHub\Vaccination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC96D387-5F50-486E-BBC4-F7C067B17226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E9752B-310A-4A21-B3C2-95B81D7CACFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{646F5D09-135C-412A-90E7-34C1C27E4426}"/>
   </bookViews>
@@ -211,15 +211,9 @@
     <t>pct_partially_vaccinated</t>
   </si>
   <si>
-    <t>% of the total population that has been only partially vaccinated (e.g., one dose of an mRNA-based vaccine).</t>
-  </si>
-  <si>
     <t>pct_ge1_dose</t>
   </si>
   <si>
-    <t>% of the total population that has been either partially or fully vaccinated.</t>
-  </si>
-  <si>
     <t>COVID-19 vaccination outcome for which inequities are calculated. Vaccination outcomes include % Fully Vaccinated.</t>
   </si>
   <si>
@@ -232,9 +226,6 @@
     <t>This is the neighborhood level characteristic we will use to first categorize neighborhoods in this row's city into top and bottom quartiles.</t>
   </si>
   <si>
-    <t>Shorthand code for COVID-19 vaccination outcome type.</t>
-  </si>
-  <si>
     <t>COVID-19 vaccination outcome type.</t>
   </si>
   <si>
@@ -244,19 +235,28 @@
     <t>COVID-19 vaccination outcome for which inequities are calculated. Outcomes include % Fully Vaccinated.</t>
   </si>
   <si>
-    <t>This column indicates  whether the data collected was at the county or city level. Note, all city-county consolidates (Baltimore, New York City, Philadelphia, San Francisco, Washington, Denver) have been labeled as city.</t>
-  </si>
-  <si>
-    <t>% of the total population that has been fully vaccinated (taking into consideration the number of doses required for each vaccine).</t>
-  </si>
-  <si>
     <t>This column indicates whether the data collected was at the county or city level. Note, all city-county consolidates (Baltimore, New York City, Philadelphia, San Francisco, Washington, Denver) have been labeled as city.</t>
   </si>
   <si>
-    <t>The city for which neighborhood level inequities are calculated for.</t>
-  </si>
-  <si>
-    <t>The rate difference between the  top and bottom quartile (rate_diff = top - bot).</t>
+    <t>Shorthand code for COVID-19 vaccination outcome type. Vaccination outcomes include % Fully Vaccinated, % Partially Vaccinated, % with at least one dose and Total Doses.</t>
+  </si>
+  <si>
+    <t>This column incidates whether the data collected was at the county or city level. Note, all city-county consolidates (Baltimore, New York City, Philadelphia, San Francisco, Washington, Denver) have been labeled as city.</t>
+  </si>
+  <si>
+    <t>% of the total population that has been fully vaccinated (taking into consideration the number of doses required for each vaccine). Please note that we capped all percentages to 100%.</t>
+  </si>
+  <si>
+    <t>% of the total population that has been only partially vaccinated (e.g., one dose of an mRNA-based vaccine). Please note that we capped all percentages to 100%.</t>
+  </si>
+  <si>
+    <t>% of the total population that has been either partially or fully vaccinated. Please note that we capped all percentages to 100%.</t>
+  </si>
+  <si>
+    <t>The city for which neighborhood level level inequities are calculated for.</t>
+  </si>
+  <si>
+    <t>The rate difference between the top and bottom quartile (rate_diff = top - bot).</t>
   </si>
 </sst>
 </file>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47454F5-C643-4C37-9237-D281466C5056}">
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,14 +692,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="69" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="69" x14ac:dyDescent="0.25">
@@ -729,7 +729,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6FEE3F-0C69-4108-8648-1A4A381EB152}">
   <dimension ref="C2:D10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,28 +810,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" ht="69" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" ht="34.5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" ht="51.75" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="3:4" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="3:4" ht="120.75" x14ac:dyDescent="0.25">
@@ -855,7 +855,7 @@
         <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -869,7 +869,7 @@
   <dimension ref="B2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="B2:C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +893,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="34.5" x14ac:dyDescent="0.25">
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CA56FC-CFC2-4F35-A687-7528C923A19B}">
   <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C14" sqref="B3:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1003,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -1019,7 +1019,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="34.5" x14ac:dyDescent="0.25">
@@ -1083,7 +1083,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1095,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DEB48F6-9EB0-4145-B3D0-B5A0A82756C1}">
   <dimension ref="B2:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,7 +1118,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -1134,7 +1134,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -1230,7 +1230,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
